--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ооо</t>
   </si>
@@ -37,27 +37,6 @@
   </si>
   <si>
     <t>Цена($)</t>
-  </si>
-  <si>
-    <t>$300,00</t>
-  </si>
-  <si>
-    <t>$100,00</t>
-  </si>
-  <si>
-    <t>$50,00</t>
-  </si>
-  <si>
-    <t>$400,00</t>
-  </si>
-  <si>
-    <t>$1200,00</t>
-  </si>
-  <si>
-    <t>$700,00</t>
-  </si>
-  <si>
-    <t>$200,00</t>
   </si>
   <si>
     <t>Палочка волшебная</t>
@@ -88,6 +67,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -155,11 +137,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -464,7 +447,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="D5" sqref="D5:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +494,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -519,14 +502,14 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="str">
-        <f>C5</f>
-        <v>$300,00</v>
+      <c r="C5" s="4">
+        <v>300</v>
+      </c>
+      <c r="D5" s="4">
+        <f>C5*$C$3</f>
+        <v>9450</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -534,72 +517,90 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="C6" s="4">
+        <v>100</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" ref="D6:D11" si="0">C6*$C$3</f>
+        <v>3150</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="C7" s="4">
+        <v>50</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>1575</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="C8" s="4">
+        <v>400</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>12600</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="C9" s="4">
+        <v>1200</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>37800</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="C10" s="4">
+        <v>700</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>22050</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="C11" s="4">
+        <v>200</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>6300</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
